--- a/biology/Médecine/Martin_L._Albert/Martin_L._Albert.xlsx
+++ b/biology/Médecine/Martin_L._Albert/Martin_L._Albert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin L. Albert, né le 7 janvier 1939[1], est un neurologue américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin L. Albert, né le 7 janvier 1939, est un neurologue américain.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin L. Albert a obtenu son MD en 1963, à l'École médicale de l'université Tufts, et son Ph.D. en 1971, à l'université de Paris[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin L. Albert a obtenu son MD en 1963, à l'École médicale de l'université Tufts, et son Ph.D. en 1971, à l'université de Paris.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Travaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Martin L. Albert s'intéresse à la neurobiologie comportementale, à la neurologie gériatrique et à la neuropsychiatrie. Il travaille sur l'aphasie et la démence[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Martin L. Albert s'intéresse à la neurobiologie comportementale, à la neurologie gériatrique et à la neuropsychiatrie. Il travaille sur l'aphasie et la démence.
 En 1995, il écrit la préface de la deuxième édition de Neuropsychologie clinique et neurologie du comportement, de Mihai Ioan Botez.
 </t>
         </is>
